--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/9.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/9.xlsx
@@ -479,13 +479,13 @@
         <v>0.01869726763914148</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.626802951383785</v>
+        <v>-1.626956418248112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02215994233939196</v>
+        <v>0.01968086222334338</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.226311568110892</v>
+        <v>-0.2260376887837857</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.04304352055344062</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.651075113243803</v>
+        <v>-1.651577225343498</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02336406696718699</v>
+        <v>0.02032935810131926</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2014420659943411</v>
+        <v>-0.2014940086253441</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.07957119025219976</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.705415762378027</v>
+        <v>-1.70543150256924</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01705831808693598</v>
+        <v>-0.01982386968306129</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2114622717205413</v>
+        <v>-0.21146069770142</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1301455077932946</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.816666646861999</v>
+        <v>-1.816496652796898</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02429093594931264</v>
+        <v>-0.02650715487210401</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2312508401135336</v>
+        <v>-0.2307943745683564</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.19719914630898</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.783053468526623</v>
+        <v>-1.782110631072964</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.004648751334601356</v>
+        <v>-0.006118885193896198</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2255639090282742</v>
+        <v>-0.2252758635290762</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.2793160898010112</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.603892316063693</v>
+        <v>-1.604100873597266</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05899041575870675</v>
+        <v>0.0579531371577696</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2083819163001559</v>
+        <v>-0.2087864392143302</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.372522313533182</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.343333125771381</v>
+        <v>-1.343666817825097</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09240369366567776</v>
+        <v>0.09208731582229632</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1975888671853971</v>
+        <v>-0.1977006225430094</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.4704287163388475</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.935821149285754</v>
+        <v>-0.9366663975538924</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1898008488535217</v>
+        <v>0.1887777364246763</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1721794765102401</v>
+        <v>-0.172278639714882</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.5641543794558214</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4940711088735946</v>
+        <v>-0.4937610271066984</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2024968870859331</v>
+        <v>0.2028337271778914</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1247275220603882</v>
+        <v>-0.125527123774009</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.6433564043173811</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01694971076756623</v>
+        <v>-0.01686156569677339</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1764578887622558</v>
+        <v>0.1763713177105842</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0596717377579095</v>
+        <v>-0.06112140936862744</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.7010679482058367</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5380761897281184</v>
+        <v>0.5387152414913665</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1403372979666476</v>
+        <v>0.1400980470602099</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03350232412748472</v>
+        <v>0.03215181572140872</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.7365337852834281</v>
       </c>
       <c r="E13" t="n">
-        <v>1.108747840289532</v>
+        <v>1.108823393207354</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02004446064036383</v>
+        <v>0.02068351240361191</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1351446088854766</v>
+        <v>0.1341010342080543</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.75741089873208</v>
       </c>
       <c r="E14" t="n">
-        <v>1.716797722924473</v>
+        <v>1.716832351345141</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1855728052133876</v>
+        <v>-0.1845056202491457</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2545496994273468</v>
+        <v>0.253707599197451</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7777330915326603</v>
       </c>
       <c r="E15" t="n">
-        <v>2.36166706084488</v>
+        <v>2.361616692232998</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4592585279677873</v>
+        <v>-0.457602659852179</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3787020316390599</v>
+        <v>0.3774333722272915</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8110098588302869</v>
       </c>
       <c r="E16" t="n">
-        <v>2.98558148220341</v>
+        <v>2.986403120184729</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6945665165066336</v>
+        <v>-0.6936583074736431</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5278293252484509</v>
+        <v>0.5259704086661948</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8654191154111059</v>
       </c>
       <c r="E17" t="n">
-        <v>3.584823153835552</v>
+        <v>3.586475873912918</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9385119349736175</v>
+        <v>-0.9368230124564618</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6900713461765193</v>
+        <v>0.6878330909860297</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9410531833126592</v>
       </c>
       <c r="E18" t="n">
-        <v>4.15640773548732</v>
+        <v>4.157158542608181</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.160750055738744</v>
+        <v>-1.159992165531837</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8253803259200116</v>
+        <v>0.8232868804886817</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.034915043507675</v>
       </c>
       <c r="E19" t="n">
-        <v>4.63274369805182</v>
+        <v>4.632965634747923</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.372191192341307</v>
+        <v>-1.372607520398891</v>
       </c>
       <c r="G19" t="n">
-        <v>1.00055921000605</v>
+        <v>0.9987018674429156</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.138556557227938</v>
       </c>
       <c r="E20" t="n">
-        <v>5.001552118363784</v>
+        <v>5.00008355852361</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.545090896739703</v>
+        <v>-1.54690259274832</v>
       </c>
       <c r="G20" t="n">
-        <v>1.135551811906161</v>
+        <v>1.133326148868642</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.24252940583179</v>
       </c>
       <c r="E21" t="n">
-        <v>5.339076908639896</v>
+        <v>5.336994481342415</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.759772151703464</v>
+        <v>-1.762506222917164</v>
       </c>
       <c r="G21" t="n">
-        <v>1.267934690103156</v>
+        <v>1.265951426010317</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.336906493839117</v>
       </c>
       <c r="E22" t="n">
-        <v>5.636930120982747</v>
+        <v>5.633331913271453</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.91157921286687</v>
+        <v>-1.916206829083494</v>
       </c>
       <c r="G22" t="n">
-        <v>1.375795924409406</v>
+        <v>1.37365840644268</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.414903330367214</v>
       </c>
       <c r="E23" t="n">
-        <v>5.801361602508544</v>
+        <v>5.797070826383879</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.041146170855857</v>
+        <v>-2.046441958189473</v>
       </c>
       <c r="G23" t="n">
-        <v>1.485930042326816</v>
+        <v>1.483173934845418</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.473314503754283</v>
       </c>
       <c r="E24" t="n">
-        <v>5.961214262410478</v>
+        <v>5.956703123608831</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.134823131850507</v>
+        <v>-2.140502979849721</v>
       </c>
       <c r="G24" t="n">
-        <v>1.52520496744151</v>
+        <v>1.523046987226207</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.511754284182282</v>
       </c>
       <c r="E25" t="n">
-        <v>6.0564298270962</v>
+        <v>6.050355687307101</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.168348952124651</v>
+        <v>-2.174242079714801</v>
       </c>
       <c r="G25" t="n">
-        <v>1.597216342241017</v>
+        <v>1.594741984182332</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.531373098851729</v>
       </c>
       <c r="E26" t="n">
-        <v>6.111857336433682</v>
+        <v>6.105660423153122</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.191170655364389</v>
+        <v>-2.196469590736248</v>
       </c>
       <c r="G26" t="n">
-        <v>1.667343616152327</v>
+        <v>1.664101136762447</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.537224781441987</v>
       </c>
       <c r="E27" t="n">
-        <v>6.100156078285933</v>
+        <v>6.093831669456547</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.186258928696371</v>
+        <v>-2.190470216855411</v>
       </c>
       <c r="G27" t="n">
-        <v>1.640087901047884</v>
+        <v>1.636470805107135</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.533901102845778</v>
       </c>
       <c r="E28" t="n">
-        <v>6.040030121871368</v>
+        <v>6.03278491185602</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.200632084302528</v>
+        <v>-2.203822621061405</v>
       </c>
       <c r="G28" t="n">
-        <v>1.633273972271773</v>
+        <v>1.629819000300518</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.525310219845763</v>
       </c>
       <c r="E29" t="n">
-        <v>5.93845394591647</v>
+        <v>5.931526687763626</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.152404138425875</v>
+        <v>-2.154521981153585</v>
       </c>
       <c r="G29" t="n">
-        <v>1.606994149022537</v>
+        <v>1.603214929112294</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.512932984997619</v>
       </c>
       <c r="E30" t="n">
-        <v>5.807997667123948</v>
+        <v>5.800166921995477</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.152441914884786</v>
+        <v>-2.152642602322752</v>
       </c>
       <c r="G30" t="n">
-        <v>1.541902162280268</v>
+        <v>1.537633422423301</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.49635078205763</v>
       </c>
       <c r="E31" t="n">
-        <v>5.609419414780653</v>
+        <v>5.602224573377188</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.096450906701878</v>
+        <v>-2.096039300701658</v>
       </c>
       <c r="G31" t="n">
-        <v>1.478894176854602</v>
+        <v>1.474253968485007</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.473874852159877</v>
       </c>
       <c r="E32" t="n">
-        <v>5.427702055264731</v>
+        <v>5.41942271468669</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.02077049333062</v>
+        <v>-2.01962145937207</v>
       </c>
       <c r="G32" t="n">
-        <v>1.43529069915633</v>
+        <v>1.430930666190327</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.441847861301245</v>
       </c>
       <c r="E33" t="n">
-        <v>5.161352835634714</v>
+        <v>5.153786525718622</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.986301048593256</v>
+        <v>-1.983392261257092</v>
       </c>
       <c r="G33" t="n">
-        <v>1.375221407430132</v>
+        <v>1.371102199389688</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.397541066111551</v>
       </c>
       <c r="E34" t="n">
-        <v>4.935213508477445</v>
+        <v>4.927990334729796</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.917864271218223</v>
+        <v>-1.914010285399719</v>
       </c>
       <c r="G34" t="n">
-        <v>1.279731963417304</v>
+        <v>1.275392392699878</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.339631458187225</v>
       </c>
       <c r="E35" t="n">
-        <v>4.644133300413551</v>
+        <v>4.636889664417326</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.880957457871526</v>
+        <v>-1.877197126190738</v>
       </c>
       <c r="G35" t="n">
-        <v>1.194064398721393</v>
+        <v>1.189591036378656</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.268191219155123</v>
       </c>
       <c r="E36" t="n">
-        <v>4.26997951116565</v>
+        <v>4.263075863299625</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.841981596389878</v>
+        <v>-1.837959977534955</v>
       </c>
       <c r="G36" t="n">
-        <v>1.144714177211253</v>
+        <v>1.140214056543454</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.184053448865675</v>
       </c>
       <c r="E37" t="n">
-        <v>3.957717727786413</v>
+        <v>3.951487760104305</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.800061532141837</v>
+        <v>-1.796997703922226</v>
       </c>
       <c r="G37" t="n">
-        <v>1.06191290133523</v>
+        <v>1.057448983107221</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.088618866605393</v>
       </c>
       <c r="E38" t="n">
-        <v>3.671565773591312</v>
+        <v>3.665615981312795</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.723211622563453</v>
+        <v>-1.719942384848511</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9834386040236628</v>
+        <v>0.9798561365035824</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9852851017081906</v>
       </c>
       <c r="E39" t="n">
-        <v>3.326674573827511</v>
+        <v>3.321516513167009</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.685940423790174</v>
+        <v>-1.683402317957076</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8998991131797501</v>
+        <v>0.8963827544627644</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8767543517469165</v>
       </c>
       <c r="E40" t="n">
-        <v>2.997095432075724</v>
+        <v>2.991694972470542</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.648012859043312</v>
+        <v>-1.645902886411209</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8385973644815735</v>
+        <v>0.8352982204033272</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7659645852692931</v>
       </c>
       <c r="E41" t="n">
-        <v>2.67451437933724</v>
+        <v>2.67032748847458</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.627891385606165</v>
+        <v>-1.625310781256792</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7841913935538153</v>
+        <v>0.7815470414300301</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.654842216751732</v>
       </c>
       <c r="E42" t="n">
-        <v>2.338455000863058</v>
+        <v>2.335321128792549</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.576365869670387</v>
+        <v>-1.573938732185341</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7221199495053227</v>
+        <v>0.7196849419246705</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5459481323581781</v>
       </c>
       <c r="E43" t="n">
-        <v>2.080707795730949</v>
+        <v>2.078200383270717</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.523354479684101</v>
+        <v>-1.521619910612428</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6461514906348662</v>
+        <v>0.6440013805151695</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4419230527395219</v>
       </c>
       <c r="E44" t="n">
-        <v>1.827352103947269</v>
+        <v>1.825157921292176</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.504993546634128</v>
+        <v>-1.503468322105588</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5607782675146382</v>
+        <v>0.5589823116972341</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3440167237523516</v>
       </c>
       <c r="E45" t="n">
-        <v>1.601606281570324</v>
+        <v>1.599602555228909</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.426397262840661</v>
+        <v>-1.425989591888244</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5062778554396019</v>
+        <v>0.5049572533968306</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2535371508968485</v>
       </c>
       <c r="E46" t="n">
-        <v>1.388740657662983</v>
+        <v>1.387045439069343</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.363600195977248</v>
+        <v>-1.363621445235386</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4431612626945656</v>
+        <v>0.4422719418910308</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1716487375044277</v>
       </c>
       <c r="E47" t="n">
-        <v>1.236915495279683</v>
+        <v>1.235851458353684</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.315685479905734</v>
+        <v>-1.316803033481858</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3790467418266247</v>
+        <v>0.3782376959982762</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1005684854693811</v>
       </c>
       <c r="E48" t="n">
-        <v>1.026691075457884</v>
+        <v>1.026184241300826</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.238046986747578</v>
+        <v>-1.239140143027321</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2937522196624617</v>
+        <v>0.2931415002433971</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.04070519825772571</v>
       </c>
       <c r="E49" t="n">
-        <v>0.869175833951082</v>
+        <v>0.869013709981588</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.167535652170671</v>
+        <v>-1.168674455004932</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2491209074779807</v>
+        <v>0.2490327624071879</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.00773547936066358</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7705871462884134</v>
+        <v>0.7708704697302475</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.094649122739721</v>
+        <v>-1.096046851719436</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2119173915269177</v>
+        <v>0.2114200014845866</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.04531401154798649</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6348264230571078</v>
+        <v>0.6355961184074238</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.062697321586878</v>
+        <v>-1.063625992868445</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1700642230915324</v>
+        <v>0.1697698815158492</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.07266807237077058</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4623564258788275</v>
+        <v>0.4629907555847117</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.025917216779445</v>
+        <v>-1.027466051594805</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1273075676805205</v>
+        <v>0.1271753500743313</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.09129166646502475</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4022650978849311</v>
+        <v>0.403285062275534</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.025514267884392</v>
+        <v>-1.02719453329638</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1005209102742254</v>
+        <v>0.1001541638189623</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1032173090310442</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2459524069868025</v>
+        <v>0.2458422256483114</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9648460618825386</v>
+        <v>-0.9668773335585772</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0540779020811273</v>
+        <v>0.0538339291173257</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1104414972217945</v>
       </c>
       <c r="E55" t="n">
-        <v>0.127493301936834</v>
+        <v>0.1273799725601003</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.940867454588644</v>
+        <v>-0.9433315815230402</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02695912664023776</v>
+        <v>0.02678598453689468</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1142365822543289</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03947257865457823</v>
+        <v>0.03953239138118765</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9247731090733444</v>
+        <v>-0.9275858812431087</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008653055979190305</v>
+        <v>-0.00855074473630576</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1162034341374209</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07259443474378814</v>
+        <v>-0.07259286072466685</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9257072894218363</v>
+        <v>-0.9283988621192606</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05071242091946598</v>
+        <v>-0.05048891020424129</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1177390964700112</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1287050683799151</v>
+        <v>-0.1283934125938975</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9057542360306682</v>
+        <v>-0.9090195386978065</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08114765464893609</v>
+        <v>-0.08078090819367302</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1199307841548644</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.208293771229363</v>
+        <v>-0.2084684873518274</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9145286056223589</v>
+        <v>-0.918478606607263</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1058424406430226</v>
+        <v>-0.10619029886883</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1232272358567448</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3022139181782538</v>
+        <v>-0.3017133800976802</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9107706349702535</v>
+        <v>-0.9147206359551576</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1250801023435596</v>
+        <v>-0.1256357310933787</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1272227240856366</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3950716022202665</v>
+        <v>-0.3953265933179173</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8924655795990871</v>
+        <v>-0.8962432254902089</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.147287938125991</v>
+        <v>-0.1477444036711682</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1313423946456697</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5037796588137773</v>
+        <v>-0.5034176344158781</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8811121796771453</v>
+        <v>-0.8854989709682103</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1763899776597194</v>
+        <v>-0.1765363614380004</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1352082351714468</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5673653092569612</v>
+        <v>-0.5672645720331979</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8907916102635839</v>
+        <v>-0.8951052096655084</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1977446950784058</v>
+        <v>-0.1981476439734588</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1383203431538936</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6886812590120903</v>
+        <v>-0.687511762804964</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9126665410018602</v>
+        <v>-0.9174940576468894</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2349246007426494</v>
+        <v>-0.2349844134692588</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1402323390904368</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8109982849283668</v>
+        <v>-0.8099090636964267</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.946537071463569</v>
+        <v>-0.9522302986253136</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2807096689430438</v>
+        <v>-0.28043893765418</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1408002882334949</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9072440451289793</v>
+        <v>-0.9061469538014327</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9756776744657694</v>
+        <v>-0.9811505389505318</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3075183626170371</v>
+        <v>-0.3075577130950696</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1395957178080455</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9508050243109758</v>
+        <v>-0.9497472834614618</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.014780244486682</v>
+        <v>-1.020370373395981</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3477534393957253</v>
+        <v>-0.3473473424624297</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1366706072978514</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9964539398573777</v>
+        <v>-0.9956212837422097</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.026122626274774</v>
+        <v>-1.031389294254647</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3706113450752539</v>
+        <v>-0.3703768162261801</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1321022685283339</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.063744831312103</v>
+        <v>-1.061774159372235</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.074659079899202</v>
+        <v>-1.079974542471835</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3907682339426305</v>
+        <v>-0.39024723361348</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1262408136832221</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.09121067796924</v>
+        <v>-1.08957684612133</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.119226644309271</v>
+        <v>-1.124041568801329</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4044826625465234</v>
+        <v>-0.4035587133223199</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1189996701591247</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.112071940393399</v>
+        <v>-1.109496845110951</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.128056891579768</v>
+        <v>-1.133219674297634</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4344016180042068</v>
+        <v>-0.4335028530859442</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1104351650519251</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.13856346921445</v>
+        <v>-1.135587786065631</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.17141954435248</v>
+        <v>-1.175536391364242</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4122992415029026</v>
+        <v>-0.4114760295024623</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1009164759339608</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.114650183714089</v>
+        <v>-1.110353898522499</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.195457177363424</v>
+        <v>-1.200021832815196</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4193901976443622</v>
+        <v>-0.4187464238237502</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.0902060144378041</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.119118036989901</v>
+        <v>-1.114329870822904</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.218879368897939</v>
+        <v>-1.222282398238191</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4237848590310337</v>
+        <v>-0.4224894412942032</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.07837707439539915</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.078134514119034</v>
+        <v>-1.072708870207911</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.235305832447833</v>
+        <v>-1.239650125222622</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4312441356468776</v>
+        <v>-0.4295961376268758</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.06529375731967965</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9891190107521165</v>
+        <v>-0.9844646362104305</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.25149383210085</v>
+        <v>-1.255386381387826</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.404773856083964</v>
+        <v>-0.4031620605037521</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.05085673359009128</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9279691548991454</v>
+        <v>-0.9237169422429516</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.260530275876237</v>
+        <v>-1.264952482597531</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3874722379026269</v>
+        <v>-0.3859910859094829</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.03531402924330286</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7788977389685606</v>
+        <v>-0.7751027788671047</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.247057459207463</v>
+        <v>-1.251201064544287</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3439018146059025</v>
+        <v>-0.3423010371595397</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.01852964207329227</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6653102230990178</v>
+        <v>-0.6618284928027006</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.267041992981058</v>
+        <v>-1.271279252455599</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3289124305137561</v>
+        <v>-0.3272030457480235</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.001174143733297231</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5069654735152899</v>
+        <v>-0.5037875289093837</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.262127905284357</v>
+        <v>-1.266469050020904</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3064574737292804</v>
+        <v>-0.3053855667076747</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.01642645722033192</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3617197110590263</v>
+        <v>-0.3588943467362916</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.279646738104434</v>
+        <v>-1.282600384985554</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2832532838430657</v>
+        <v>-0.2816430622819751</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.03365239894245416</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1999892463453806</v>
+        <v>-0.1971607339844033</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.291698215506672</v>
+        <v>-1.294274884808241</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2577840804412992</v>
+        <v>-0.2563438529453091</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.05069375159751102</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.004787265017275816</v>
+        <v>-0.001864311509020439</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.271012456214539</v>
+        <v>-1.273268812624923</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1927393142726696</v>
+        <v>-0.1920451718401761</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.06688531959537708</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1596709748335839</v>
+        <v>0.1625498558064429</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.269374689318825</v>
+        <v>-1.272044225748551</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1691195833384315</v>
+        <v>-0.1685796947798254</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.0818668246705975</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3294887497924726</v>
+        <v>0.3332868579321711</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.189885149674019</v>
+        <v>-1.191408013173878</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1235076572413802</v>
+        <v>-0.122972490740138</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.09494020589649917</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5334438514541304</v>
+        <v>0.5368956753871429</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.119954628152872</v>
+        <v>-1.120707796302415</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07044589864321271</v>
+        <v>-0.06984147530063324</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1053195750547311</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7230753791119522</v>
+        <v>0.7261211061116689</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.037203720888731</v>
+        <v>-1.037354039714816</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02413510805630387</v>
+        <v>-0.02366605035815627</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.111341332189395</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8810077356858993</v>
+        <v>0.884508354211672</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.912050312515871</v>
+        <v>-0.9117953214182203</v>
       </c>
       <c r="G88" t="n">
-        <v>4.049187963477307e-06</v>
+        <v>0.0008540195134658487</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1110310874185142</v>
       </c>
       <c r="E89" t="n">
-        <v>1.02119145264806</v>
+        <v>1.024745587823957</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8059441095298703</v>
+        <v>-0.8050138642291816</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03402962053312045</v>
+        <v>0.03396823378738972</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1024550601670026</v>
       </c>
       <c r="E90" t="n">
-        <v>1.122961232954877</v>
+        <v>1.127089885110049</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6606149240601777</v>
+        <v>-0.6596799567021252</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0519986228218891</v>
+        <v>0.05205371349113462</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.08283756327073148</v>
       </c>
       <c r="E91" t="n">
-        <v>1.223496982270595</v>
+        <v>1.226923621897666</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.487032095363138</v>
+        <v>-0.4856674207849702</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02655775176430608</v>
+        <v>0.02676709630743907</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.0528011711772295</v>
       </c>
       <c r="E92" t="n">
-        <v>1.260741422718811</v>
+        <v>1.264356944640439</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3371870490344338</v>
+        <v>-0.335811356322417</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05403540356485219</v>
+        <v>0.05394411045581675</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.01313924250684591</v>
       </c>
       <c r="E93" t="n">
-        <v>1.290211782726924</v>
+        <v>1.294165718759632</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.229509974965375</v>
+        <v>-0.2279548440735299</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04212952293133378</v>
+        <v>0.04188554996753218</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03275556626542979</v>
       </c>
       <c r="E94" t="n">
-        <v>1.241366821354721</v>
+        <v>1.245367977961068</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1022946015436108</v>
+        <v>-0.1005112378791772</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05940438278760883</v>
+        <v>0.05894476920418903</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.08197295202654496</v>
       </c>
       <c r="E95" t="n">
-        <v>1.211791002065481</v>
+        <v>1.215006723130299</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01433841304532839</v>
+        <v>-0.01256764153386512</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01600237953686367</v>
+        <v>0.0153822160030712</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1304173138877453</v>
       </c>
       <c r="E96" t="n">
-        <v>1.123194187784829</v>
+        <v>1.126219452535969</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06370617704612361</v>
+        <v>0.0648158605266406</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02546043215643905</v>
+        <v>-0.02613253832123444</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.176299606474625</v>
       </c>
       <c r="E97" t="n">
-        <v>1.062392977167227</v>
+        <v>1.064678452931355</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1116696877103982</v>
+        <v>0.1126975221966075</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01196951426777085</v>
+        <v>-0.01283679880360753</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2156138232779391</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9608907801110305</v>
+        <v>0.9635241141009665</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1079597246414924</v>
+        <v>0.1093369913726305</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06510367774551817</v>
+        <v>-0.0656120859216983</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2469442373549493</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9029306740073753</v>
+        <v>0.9043378471018181</v>
       </c>
       <c r="F99" t="n">
-        <v>0.121483696931708</v>
+        <v>0.122975867058701</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05717062137416271</v>
+        <v>-0.05782541332862379</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2683529666696305</v>
       </c>
       <c r="E100" t="n">
-        <v>0.850293900571959</v>
+        <v>0.8518584755785318</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1143502422739732</v>
+        <v>0.115437889486792</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06530672621216596</v>
+        <v>-0.06571597118370413</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2801486861786534</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7704376144718899</v>
+        <v>0.7715929445069245</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1085641479840719</v>
+        <v>0.1099225264857544</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06302912054364386</v>
+        <v>-0.06389168302211665</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.281364235223862</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7474270289375951</v>
+        <v>0.7478693283106805</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1076685311040518</v>
+        <v>0.1093731938124205</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06283394217260257</v>
+        <v>-0.06354854685367309</v>
       </c>
     </row>
   </sheetData>
